--- a/data/trans_orig/CAGE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Edad-trans_orig.xlsx
@@ -1065,7 +1065,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -1634,7 +1634,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -2203,7 +2203,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -2772,7 +2772,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -3341,7 +3341,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -4479,7 +4479,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -5048,7 +5048,7 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -5860,7 +5860,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -6429,7 +6429,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -6998,7 +6998,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -7567,7 +7567,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -8136,7 +8136,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -8705,7 +8705,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -9274,7 +9274,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -9843,7 +9843,7 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -10655,7 +10655,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -11224,7 +11224,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -11793,7 +11793,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -12362,7 +12362,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -12931,7 +12931,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -13500,7 +13500,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -14069,7 +14069,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -14638,7 +14638,7 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -15450,7 +15450,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -16019,7 +16019,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -16588,7 +16588,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -17157,7 +17157,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -17726,7 +17726,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -18295,7 +18295,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -18864,7 +18864,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -19433,7 +19433,7 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
